--- a/data/trans_orig/P1802-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1802-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3123AF7-E4E1-4199-9071-CD5E4AD0C11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98705C99-F837-4D83-BB0B-6DE838FFEAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BC77B966-C533-4A21-9A41-4B990C3FCE5A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BEA02202-387A-478C-8B06-A6811CAEC7DA}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -75,181 +75,181 @@
     <t>16,73%</t>
   </si>
   <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
     <t>14,27%</t>
   </si>
   <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
   </si>
   <si>
     <t>85,73%</t>
   </si>
   <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
     <t>Universitarios</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
   </si>
   <si>
     <t>16,54%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
   </si>
   <si>
     <t>15,01%</t>
   </si>
   <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
   </si>
   <si>
     <t>86,52%</t>
   </si>
   <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
   </si>
   <si>
     <t>83,46%</t>
   </si>
   <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
   </si>
   <si>
     <t>84,99%</t>
   </si>
   <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
   </si>
   <si>
     <t>14,3%</t>
   </si>
   <si>
-    <t>13,21%</t>
+    <t>13,15%</t>
   </si>
   <si>
     <t>15,6%</t>
@@ -258,19 +258,19 @@
     <t>18,89%</t>
   </si>
   <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
   </si>
   <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
   </si>
   <si>
     <t>85,7%</t>
@@ -279,25 +279,25 @@
     <t>84,4%</t>
   </si>
   <si>
-    <t>86,79%</t>
+    <t>86,85%</t>
   </si>
   <si>
     <t>81,11%</t>
   </si>
   <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
   </si>
   <si>
     <t>83,35%</t>
   </si>
   <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -309,205 +309,205 @@
     <t>19,42%</t>
   </si>
   <si>
-    <t>23,14%</t>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
   </si>
   <si>
     <t>20,02%</t>
   </si>
   <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
+    <t>17,92%</t>
   </si>
   <si>
     <t>19,78%</t>
   </si>
   <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
   </si>
   <si>
     <t>80,58%</t>
   </si>
   <si>
-    <t>76,86%</t>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
   </si>
   <si>
     <t>79,98%</t>
   </si>
   <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
+    <t>82,08%</t>
   </si>
   <si>
     <t>80,22%</t>
   </si>
   <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
   </si>
   <si>
     <t>16,89%</t>
   </si>
   <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
+    <t>23,26%</t>
   </si>
   <si>
     <t>15,84%</t>
   </si>
   <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
   </si>
   <si>
     <t>16,35%</t>
   </si>
   <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
   </si>
   <si>
     <t>83,11%</t>
   </si>
   <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
+    <t>76,74%</t>
   </si>
   <si>
     <t>84,16%</t>
   </si>
   <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
   </si>
   <si>
     <t>83,65%</t>
   </si>
   <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
   </si>
   <si>
     <t>15,07%</t>
   </si>
   <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
   </si>
   <si>
     <t>20,36%</t>
   </si>
   <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
   </si>
   <si>
     <t>17,79%</t>
   </si>
   <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
   </si>
   <si>
     <t>84,93%</t>
   </si>
   <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
   </si>
   <si>
     <t>79,64%</t>
   </si>
   <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
   </si>
   <si>
     <t>82,21%</t>
   </si>
   <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
   </si>
   <si>
     <t>16,93%</t>
   </si>
   <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
   </si>
   <si>
     <t>17,61%</t>
   </si>
   <si>
-    <t>18,75%</t>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
   </si>
   <si>
     <t>17,29%</t>
   </si>
   <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
   </si>
   <si>
     <t>83,07%</t>
   </si>
   <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
   </si>
   <si>
     <t>82,39%</t>
   </si>
   <si>
-    <t>81,25%</t>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
   </si>
   <si>
     <t>82,71%</t>
   </si>
   <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
   </si>
 </sst>
 </file>
@@ -919,7 +919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F30C23A-8B8E-459C-9908-186F3BCC201C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE05E6C6-AC4B-4B6B-8698-759F3BDA7F45}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1670,7 +1670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DAE862-BCCC-4ABC-B503-DD5E360C4C7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A99DFD-9690-4B70-B39F-D21E48142314}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1797,10 +1797,10 @@
         <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>301</v>
@@ -1809,13 +1809,13 @@
         <v>167232</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="M4" s="7">
         <v>435</v>
@@ -1851,7 +1851,7 @@
         <v>98</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="H5" s="7">
         <v>1125</v>
@@ -1860,10 +1860,10 @@
         <v>668096</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>101</v>
@@ -1952,10 +1952,10 @@
         <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>561</v>
@@ -1964,13 +1964,13 @@
         <v>355901</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>880</v>
@@ -1979,13 +1979,13 @@
         <v>720895</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2000,13 +2000,13 @@
         <v>1796264</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="H8" s="7">
         <v>2357</v>
@@ -2015,28 +2015,28 @@
         <v>1891415</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>4029</v>
       </c>
       <c r="N8" s="7">
-        <v>3687678</v>
+        <v>3687679</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2078,7 +2078,7 @@
         <v>4909</v>
       </c>
       <c r="N9" s="7">
-        <v>4408573</v>
+        <v>4408574</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2104,13 +2104,13 @@
         <v>101311</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>216</v>
@@ -2119,13 +2119,13 @@
         <v>145187</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>325</v>
@@ -2134,13 +2134,13 @@
         <v>246498</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,13 +2155,13 @@
         <v>570910</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H11" s="7">
         <v>787</v>
@@ -2170,13 +2170,13 @@
         <v>567977</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>1358</v>
@@ -2185,13 +2185,13 @@
         <v>1138887</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2259,13 +2259,13 @@
         <v>571495</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>1078</v>
@@ -2274,13 +2274,13 @@
         <v>668320</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M13" s="7">
         <v>1640</v>
@@ -2289,13 +2289,13 @@
         <v>1239815</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,31 +2307,31 @@
         <v>2800</v>
       </c>
       <c r="D14" s="7">
-        <v>2803618</v>
+        <v>2803617</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H14" s="7">
         <v>4269</v>
       </c>
       <c r="I14" s="7">
-        <v>3127487</v>
+        <v>3127488</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M14" s="7">
         <v>7069</v>
@@ -2358,7 +2358,7 @@
         <v>3362</v>
       </c>
       <c r="D15" s="7">
-        <v>3375113</v>
+        <v>3375112</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2373,7 +2373,7 @@
         <v>5347</v>
       </c>
       <c r="I15" s="7">
-        <v>3795807</v>
+        <v>3795808</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P1802-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1802-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98705C99-F837-4D83-BB0B-6DE838FFEAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D9D94E9-34E4-40BA-8435-499780E77722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BEA02202-387A-478C-8B06-A6811CAEC7DA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9127F08D-EA14-4AF6-8691-8110F4FF22C5}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="157">
   <si>
-    <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,271 +75,271 @@
     <t>16,73%</t>
   </si>
   <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
   </si>
   <si>
     <t>23,3%</t>
   </si>
   <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
   </si>
   <si>
     <t>20,47%</t>
   </si>
   <si>
-    <t>18,53%</t>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
   </si>
   <si>
     <t>22,47%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
   </si>
   <si>
     <t>77,53%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
   </si>
   <si>
     <t>82,08%</t>
@@ -919,7 +919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE05E6C6-AC4B-4B6B-8698-759F3BDA7F45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF296FAC-CA9D-44D2-B992-E7CA642E69E9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1538,13 +1538,13 @@
         <v>1150450</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1559,13 +1559,13 @@
         <v>2894532</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>2711</v>
@@ -1574,13 +1574,13 @@
         <v>2864736</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>5470</v>
@@ -1589,13 +1589,13 @@
         <v>5759268</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1651,7 +1651,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A99DFD-9690-4B70-B39F-D21E48142314}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9846E1A6-E39F-4B77-A442-B9EE5309C7E8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1687,7 +1687,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1794,13 +1794,13 @@
         <v>105189</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>301</v>
@@ -1809,13 +1809,13 @@
         <v>167232</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M4" s="7">
         <v>435</v>
@@ -1824,13 +1824,13 @@
         <v>272421</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1845,13 +1845,13 @@
         <v>436445</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H5" s="7">
         <v>1125</v>
@@ -1860,10 +1860,10 @@
         <v>668096</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>101</v>
@@ -2006,7 +2006,7 @@
         <v>114</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H8" s="7">
         <v>2357</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1802-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1802-Estudios-trans_orig.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D9D94E9-34E4-40BA-8435-499780E77722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45033A70-8F0B-454C-B42A-E8B2FD52B230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9127F08D-EA14-4AF6-8691-8110F4FF22C5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E5148E8E-1A2B-411F-8B9B-E38CD09486EE}"/>
   </bookViews>
   <sheets>
-    <sheet name="2016" sheetId="2" r:id="rId1"/>
-    <sheet name="2023" sheetId="3" r:id="rId2"/>
+    <sheet name="2007" sheetId="2" r:id="rId1"/>
+    <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
+    <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,477 +39,618 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="204">
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2007 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>n (muestra)</t>
+  </si>
+  <si>
+    <t>N (estimada)</t>
+  </si>
+  <si>
+    <t>Estimación puntual</t>
+  </si>
+  <si>
+    <t>lím inf IC</t>
+  </si>
+  <si>
+    <t>lím sup IC</t>
+  </si>
+  <si>
+    <t>Primarios</t>
+  </si>
+  <si>
+    <t>991.0</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
   <si>
     <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>n (muestra)</t>
-  </si>
-  <si>
-    <t>N (estimada)</t>
-  </si>
-  <si>
-    <t>Estimación puntual</t>
-  </si>
-  <si>
-    <t>lím inf IC</t>
-  </si>
-  <si>
-    <t>lím sup IC</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>Si</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
   </si>
   <si>
     <t>16,73%</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
   </si>
   <si>
     <t>23,3%</t>
   </si>
   <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
   </si>
   <si>
     <t>20,47%</t>
   </si>
   <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
   </si>
   <si>
     <t>83,27%</t>
   </si>
   <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
   </si>
   <si>
     <t>76,7%</t>
   </si>
   <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
   </si>
   <si>
     <t>79,53%</t>
   </si>
   <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
   </si>
   <si>
     <t>13,64%</t>
   </si>
   <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
   </si>
   <si>
     <t>17,34%</t>
   </si>
   <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
   </si>
   <si>
     <t>15,45%</t>
   </si>
   <si>
-    <t>14,36%</t>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
   </si>
   <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
   </si>
   <si>
     <t>83,35%</t>
   </si>
   <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
   </si>
   <si>
     <t>Población según si en los últimos 12 meses han visitado un centro de servicio de radiología en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
   <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
     <t>19,42%</t>
   </si>
   <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
+    <t>23,14%</t>
   </si>
   <si>
     <t>20,02%</t>
   </si>
   <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
   </si>
   <si>
     <t>19,78%</t>
   </si>
   <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
   </si>
   <si>
     <t>80,58%</t>
   </si>
   <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
+    <t>76,86%</t>
   </si>
   <si>
     <t>79,98%</t>
   </si>
   <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
   </si>
   <si>
     <t>80,22%</t>
   </si>
   <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
   </si>
   <si>
     <t>16,89%</t>
   </si>
   <si>
-    <t>23,26%</t>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
   </si>
   <si>
     <t>15,84%</t>
   </si>
   <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
   </si>
   <si>
     <t>16,35%</t>
   </si>
   <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
   </si>
   <si>
     <t>83,11%</t>
   </si>
   <si>
-    <t>76,74%</t>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
   </si>
   <si>
     <t>84,16%</t>
   </si>
   <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
   </si>
   <si>
     <t>83,65%</t>
   </si>
   <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
   </si>
   <si>
     <t>15,07%</t>
   </si>
   <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
   </si>
   <si>
     <t>20,36%</t>
   </si>
   <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
   </si>
   <si>
     <t>17,79%</t>
   </si>
   <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
   </si>
   <si>
     <t>84,93%</t>
   </si>
   <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
   </si>
   <si>
     <t>79,64%</t>
   </si>
   <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
   </si>
   <si>
     <t>82,21%</t>
   </si>
   <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
   </si>
   <si>
     <t>16,93%</t>
   </si>
   <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
   </si>
   <si>
     <t>17,61%</t>
   </si>
   <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
+    <t>18,75%</t>
   </si>
   <si>
     <t>17,29%</t>
   </si>
   <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
   </si>
   <si>
     <t>83,07%</t>
   </si>
   <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
   </si>
   <si>
     <t>82,39%</t>
   </si>
   <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
+    <t>81,25%</t>
   </si>
   <si>
     <t>82,71%</t>
   </si>
   <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
   </si>
 </sst>
 </file>
@@ -919,8 +1062,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF296FAC-CA9D-44D2-B992-E7CA642E69E9}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BB5884-67E9-4381-B13F-FFB8CD186CA4}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1037,10 +1180,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>129</v>
+        <v>1038</v>
       </c>
       <c r="D4" s="7">
-        <v>126225</v>
+        <v>1031723</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1052,550 +1195,548 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>207</v>
+        <v>1291</v>
       </c>
       <c r="I4" s="7">
-        <v>231757</v>
+        <v>1315113</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2329</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2346836</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>336</v>
-      </c>
-      <c r="N4" s="7">
-        <v>357982</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>633</v>
-      </c>
-      <c r="D5" s="7">
-        <v>628122</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>685</v>
-      </c>
-      <c r="I5" s="7">
-        <v>762903</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1318</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1391025</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
-        <v>762</v>
-      </c>
-      <c r="D6" s="7">
-        <v>754347</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>892</v>
-      </c>
-      <c r="I6" s="7">
-        <v>994660</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="7">
-        <v>1654</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1749007</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="7">
+        <v>1038</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1031723</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1291</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1315113</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2329</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2346836</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7">
-        <v>263</v>
-      </c>
-      <c r="D7" s="7">
-        <v>283147</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="7">
-        <v>324</v>
-      </c>
-      <c r="I7" s="7">
-        <v>344776</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="7">
-        <v>587</v>
-      </c>
-      <c r="N7" s="7">
-        <v>627924</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="C8" s="7">
-        <v>1689</v>
+        <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>1793238</v>
+        <v>1693412</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>1584</v>
+        <v>1554</v>
       </c>
       <c r="I8" s="7">
-        <v>1643524</v>
+        <v>1587673</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>3273</v>
+        <v>3203</v>
       </c>
       <c r="N8" s="7">
-        <v>3436761</v>
+        <v>3281086</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>1952</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>2076385</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>1908</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>1988300</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>3860</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>4064685</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>73714</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="H10" s="7">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>90831</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="M10" s="7">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>164545</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>437</v>
+        <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>473172</v>
+        <v>1693412</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>442</v>
+        <v>1554</v>
       </c>
       <c r="I11" s="7">
-        <v>458309</v>
+        <v>1587673</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>879</v>
+        <v>3203</v>
       </c>
       <c r="N11" s="7">
-        <v>931481</v>
+        <v>3281086</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>501</v>
+        <v>527</v>
       </c>
       <c r="D12" s="7">
-        <v>546886</v>
+        <v>551408</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>526</v>
+        <v>452</v>
       </c>
       <c r="I12" s="7">
-        <v>549140</v>
+        <v>476412</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>1027</v>
+        <v>979</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1027820</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>456</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>483086</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="H13" s="7">
-        <v>615</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>667364</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="M13" s="7">
-        <v>1071</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>1150450</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>2759</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>2894532</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="H14" s="7">
-        <v>2711</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>2864736</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="M14" s="7">
-        <v>5470</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>5759268</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1604,74 +1745,280 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3215</v>
+        <v>527</v>
       </c>
       <c r="D15" s="7">
-        <v>3377618</v>
+        <v>551408</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>3326</v>
+        <v>452</v>
       </c>
       <c r="I15" s="7">
-        <v>3532100</v>
+        <v>476412</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>6541</v>
+        <v>979</v>
       </c>
       <c r="N15" s="7">
-        <v>6909718</v>
+        <v>1027820</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>85</v>
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3214</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3276544</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3297</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3379198</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
+        <v>6511</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6655740</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3214</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3276544</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3297</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3379198</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>6511</v>
+      </c>
+      <c r="N19" s="7">
+        <v>6655740</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9846E1A6-E39F-4B77-A442-B9EE5309C7E8}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3980BE-D2F9-4355-905A-062C019B4D3F}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1687,7 +2034,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1788,565 +2135,563 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>134</v>
+        <v>908</v>
       </c>
       <c r="D4" s="7">
-        <v>105189</v>
+        <v>974643</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>301</v>
+        <v>1247</v>
       </c>
       <c r="I4" s="7">
-        <v>167232</v>
+        <v>1337796</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>435</v>
+        <v>2155</v>
       </c>
       <c r="N4" s="7">
-        <v>272421</v>
+        <v>2312440</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>557</v>
-      </c>
-      <c r="D5" s="7">
-        <v>436445</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1125</v>
-      </c>
-      <c r="I5" s="7">
-        <v>668096</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="M5" s="7">
-        <v>1682</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1104541</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
-        <v>691</v>
-      </c>
-      <c r="D6" s="7">
-        <v>541634</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1426</v>
-      </c>
-      <c r="I6" s="7">
-        <v>835328</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="7">
-        <v>2117</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1376962</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="7">
+        <v>908</v>
+      </c>
+      <c r="D7" s="7">
+        <v>974643</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1247</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1337796</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2155</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2312440</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7">
-        <v>319</v>
-      </c>
-      <c r="D7" s="7">
-        <v>364994</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H7" s="7">
-        <v>561</v>
-      </c>
-      <c r="I7" s="7">
-        <v>355901</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M7" s="7">
-        <v>880</v>
-      </c>
-      <c r="N7" s="7">
-        <v>720895</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="C8" s="7">
-        <v>1672</v>
+        <v>1856</v>
       </c>
       <c r="D8" s="7">
-        <v>1796264</v>
+        <v>1963957</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>2357</v>
+        <v>1635</v>
       </c>
       <c r="I8" s="7">
-        <v>1891415</v>
+        <v>1757803</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>4029</v>
+        <v>3491</v>
       </c>
       <c r="N8" s="7">
-        <v>3687679</v>
+        <v>3721760</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>1991</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>2161258</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H9" s="7">
-        <v>2918</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>2247316</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>4909</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>4408574</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>101311</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>145187</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="M10" s="7">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>246498</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>571</v>
+        <v>1856</v>
       </c>
       <c r="D11" s="7">
-        <v>570910</v>
+        <v>1963957</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>787</v>
+        <v>1635</v>
       </c>
       <c r="I11" s="7">
-        <v>567977</v>
+        <v>1757803</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1358</v>
+        <v>3491</v>
       </c>
       <c r="N11" s="7">
-        <v>1138887</v>
+        <v>3721760</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>680</v>
+        <v>438</v>
       </c>
       <c r="D12" s="7">
-        <v>672221</v>
+        <v>481181</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>1003</v>
+        <v>412</v>
       </c>
       <c r="I12" s="7">
-        <v>713164</v>
+        <v>458631</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>1683</v>
+        <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>1385385</v>
+        <v>939812</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>562</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>571495</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
-        <v>1078</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>668320</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
-        <v>1640</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>1239815</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>2803617</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="H14" s="7">
-        <v>4269</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>3127488</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="M14" s="7">
-        <v>7069</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>5931105</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,66 +2700,2182 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3362</v>
+        <v>438</v>
       </c>
       <c r="D15" s="7">
-        <v>3375112</v>
+        <v>481181</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>5347</v>
+        <v>412</v>
       </c>
       <c r="I15" s="7">
-        <v>3795808</v>
+        <v>458631</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>8709</v>
+        <v>850</v>
       </c>
       <c r="N15" s="7">
-        <v>7170920</v>
+        <v>939812</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>85</v>
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3202</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3419782</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3294</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3554230</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
+        <v>6496</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6974012</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3202</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3419782</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3294</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3554230</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>6496</v>
+      </c>
+      <c r="N19" s="7">
+        <v>6974012</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6E0E8E-0666-45D2-A032-1D00E5F1BCA7}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>129</v>
+      </c>
+      <c r="D5" s="7">
+        <v>126225</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="7">
+        <v>207</v>
+      </c>
+      <c r="I5" s="7">
+        <v>231757</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="7">
+        <v>336</v>
+      </c>
+      <c r="N5" s="7">
+        <v>357982</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>633</v>
+      </c>
+      <c r="D6" s="7">
+        <v>628122</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="7">
+        <v>685</v>
+      </c>
+      <c r="I6" s="7">
+        <v>762903</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1318</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1391025</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>762</v>
+      </c>
+      <c r="D7" s="7">
+        <v>754347</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>892</v>
+      </c>
+      <c r="I7" s="7">
+        <v>994660</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1654</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1749007</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7">
+        <v>263</v>
+      </c>
+      <c r="D9" s="7">
+        <v>283147</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="7">
+        <v>324</v>
+      </c>
+      <c r="I9" s="7">
+        <v>344776</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="7">
+        <v>587</v>
+      </c>
+      <c r="N9" s="7">
+        <v>627924</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1689</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1793238</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1584</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1643524</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="7">
+        <v>3273</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3436761</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1952</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2076385</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1908</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1988300</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3860</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4064685</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7">
+        <v>64</v>
+      </c>
+      <c r="D13" s="7">
+        <v>73714</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="7">
+        <v>84</v>
+      </c>
+      <c r="I13" s="7">
+        <v>90831</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" s="7">
+        <v>148</v>
+      </c>
+      <c r="N13" s="7">
+        <v>164545</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7">
+        <v>437</v>
+      </c>
+      <c r="D14" s="7">
+        <v>473172</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="7">
+        <v>442</v>
+      </c>
+      <c r="I14" s="7">
+        <v>458309</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M14" s="7">
+        <v>879</v>
+      </c>
+      <c r="N14" s="7">
+        <v>931481</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>501</v>
+      </c>
+      <c r="D15" s="7">
+        <v>546886</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>526</v>
+      </c>
+      <c r="I15" s="7">
+        <v>549140</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1027</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1096026</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>456</v>
+      </c>
+      <c r="D17" s="7">
+        <v>483086</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="7">
+        <v>615</v>
+      </c>
+      <c r="I17" s="7">
+        <v>667364</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1071</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1150450</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2759</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2894532</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="7">
+        <v>2711</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2864736</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M18" s="7">
+        <v>5470</v>
+      </c>
+      <c r="N18" s="7">
+        <v>5759268</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3215</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3377618</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3326</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3532100</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>6541</v>
+      </c>
+      <c r="N19" s="7">
+        <v>6909718</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAD173D-C866-4D54-913E-F8DAAB39116E}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>134</v>
+      </c>
+      <c r="D5" s="7">
+        <v>105189</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" s="7">
+        <v>301</v>
+      </c>
+      <c r="I5" s="7">
+        <v>167232</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M5" s="7">
+        <v>435</v>
+      </c>
+      <c r="N5" s="7">
+        <v>272421</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>557</v>
+      </c>
+      <c r="D6" s="7">
+        <v>436445</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1125</v>
+      </c>
+      <c r="I6" s="7">
+        <v>668096</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1682</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1104541</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>691</v>
+      </c>
+      <c r="D7" s="7">
+        <v>541634</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1426</v>
+      </c>
+      <c r="I7" s="7">
+        <v>835328</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2117</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1376962</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7">
+        <v>319</v>
+      </c>
+      <c r="D9" s="7">
+        <v>364994</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" s="7">
+        <v>561</v>
+      </c>
+      <c r="I9" s="7">
+        <v>355901</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M9" s="7">
+        <v>880</v>
+      </c>
+      <c r="N9" s="7">
+        <v>720895</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1672</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1796264</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2357</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1891415</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M10" s="7">
+        <v>4029</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3687678</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1991</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2161258</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2918</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2247316</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="7">
+        <v>4909</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4408573</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7">
+        <v>109</v>
+      </c>
+      <c r="D13" s="7">
+        <v>101311</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" s="7">
+        <v>216</v>
+      </c>
+      <c r="I13" s="7">
+        <v>145187</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M13" s="7">
+        <v>325</v>
+      </c>
+      <c r="N13" s="7">
+        <v>246498</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7">
+        <v>571</v>
+      </c>
+      <c r="D14" s="7">
+        <v>570910</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H14" s="7">
+        <v>787</v>
+      </c>
+      <c r="I14" s="7">
+        <v>567977</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1358</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1138887</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>680</v>
+      </c>
+      <c r="D15" s="7">
+        <v>672221</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1003</v>
+      </c>
+      <c r="I15" s="7">
+        <v>713164</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1683</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1385385</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>562</v>
+      </c>
+      <c r="D17" s="7">
+        <v>571495</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1078</v>
+      </c>
+      <c r="I17" s="7">
+        <v>668320</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1640</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1239815</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2800</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2803618</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H18" s="7">
+        <v>4269</v>
+      </c>
+      <c r="I18" s="7">
+        <v>3127487</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M18" s="7">
+        <v>7069</v>
+      </c>
+      <c r="N18" s="7">
+        <v>5931105</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3362</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3375113</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>5347</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3795807</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>8709</v>
+      </c>
+      <c r="N19" s="7">
+        <v>7170920</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/P1802-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1802-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45033A70-8F0B-454C-B42A-E8B2FD52B230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64D51E0E-519D-46A4-AAF1-76D8250DA888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E5148E8E-1A2B-411F-8B9B-E38CD09486EE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6A0358C4-FA5C-424D-A175-CDD7BC9B58E6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -437,52 +437,58 @@
     <t>0,13%</t>
   </si>
   <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
   </si>
   <si>
     <t>0,07%</t>
@@ -491,166 +497,160 @@
     <t>0,04%</t>
   </si>
   <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
   </si>
   <si>
     <t>0,02%</t>
   </si>
   <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BB5884-67E9-4381-B13F-FFB8CD186CA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D71C39-AF11-482F-8504-02856B6217D6}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1213,7 +1213,7 @@
         <v>2329</v>
       </c>
       <c r="N4" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -1366,7 +1366,7 @@
         <v>2329</v>
       </c>
       <c r="N7" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -1389,7 +1389,7 @@
         <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
@@ -1542,7 +1542,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -1801,7 +1801,7 @@
         <v>3214</v>
       </c>
       <c r="D16" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
@@ -1816,7 +1816,7 @@
         <v>3297</v>
       </c>
       <c r="I16" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
@@ -1831,7 +1831,7 @@
         <v>6511</v>
       </c>
       <c r="N16" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
@@ -1954,7 +1954,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -1969,7 +1969,7 @@
         <v>3297</v>
       </c>
       <c r="I19" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -1984,7 +1984,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -2017,7 +2017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3980BE-D2F9-4355-905A-062C019B4D3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3324A4A1-36D6-4807-A8F8-BCDAB10479C1}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2153,7 +2153,7 @@
         <v>1247</v>
       </c>
       <c r="I4" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -2306,7 +2306,7 @@
         <v>1247</v>
       </c>
       <c r="I7" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -2580,7 +2580,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>11</v>
@@ -2733,7 +2733,7 @@
         <v>850</v>
       </c>
       <c r="N15" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -2972,7 +2972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6E0E8E-0666-45D2-A032-1D00E5F1BCA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B1F3D6-82AF-4C54-AC73-F766AB803B88}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3637,7 +3637,7 @@
         <v>879</v>
       </c>
       <c r="N14" s="7">
-        <v>931481</v>
+        <v>931482</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>108</v>
@@ -3688,7 +3688,7 @@
         <v>1027</v>
       </c>
       <c r="N15" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -3927,7 +3927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAD173D-C866-4D54-913E-F8DAAB39116E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0443BC72-0CA0-40C7-9EFB-76A43F4B6DA3}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4099,46 +4099,46 @@
         <v>134</v>
       </c>
       <c r="D5" s="7">
-        <v>105189</v>
+        <v>102947</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>132</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>301</v>
       </c>
       <c r="I5" s="7">
-        <v>167232</v>
+        <v>154332</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>435</v>
       </c>
       <c r="N5" s="7">
-        <v>272421</v>
+        <v>257280</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,46 +4150,46 @@
         <v>557</v>
       </c>
       <c r="D6" s="7">
-        <v>436445</v>
+        <v>411991</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="H6" s="7">
         <v>1125</v>
       </c>
       <c r="I6" s="7">
-        <v>668096</v>
+        <v>600610</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M6" s="7">
         <v>1682</v>
       </c>
       <c r="N6" s="7">
-        <v>1104541</v>
+        <v>1012601</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,7 +4201,7 @@
         <v>691</v>
       </c>
       <c r="D7" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -4216,7 +4216,7 @@
         <v>1426</v>
       </c>
       <c r="I7" s="7">
-        <v>835328</v>
+        <v>754942</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -4231,7 +4231,7 @@
         <v>2117</v>
       </c>
       <c r="N7" s="7">
-        <v>1376962</v>
+        <v>1269881</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -4278,7 +4278,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4293,7 +4293,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,46 +4305,46 @@
         <v>319</v>
       </c>
       <c r="D9" s="7">
-        <v>364994</v>
+        <v>554093</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H9" s="7">
         <v>561</v>
       </c>
       <c r="I9" s="7">
-        <v>355901</v>
+        <v>335249</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M9" s="7">
         <v>880</v>
       </c>
       <c r="N9" s="7">
-        <v>720895</v>
+        <v>889342</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,46 +4356,46 @@
         <v>1672</v>
       </c>
       <c r="D10" s="7">
-        <v>1796264</v>
+        <v>1735521</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>2357</v>
       </c>
       <c r="I10" s="7">
-        <v>1891415</v>
+        <v>1900598</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>4029</v>
       </c>
       <c r="N10" s="7">
-        <v>3687678</v>
+        <v>3636119</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,7 +4407,7 @@
         <v>1991</v>
       </c>
       <c r="D11" s="7">
-        <v>2161258</v>
+        <v>2289614</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -4422,7 +4422,7 @@
         <v>2918</v>
       </c>
       <c r="I11" s="7">
-        <v>2247316</v>
+        <v>2235847</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -4437,7 +4437,7 @@
         <v>4909</v>
       </c>
       <c r="N11" s="7">
-        <v>4408573</v>
+        <v>4525461</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -4499,7 +4499,7 @@
         <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,46 +4511,46 @@
         <v>109</v>
       </c>
       <c r="D13" s="7">
-        <v>101311</v>
+        <v>99371</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H13" s="7">
         <v>216</v>
       </c>
       <c r="I13" s="7">
-        <v>145187</v>
+        <v>138432</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M13" s="7">
         <v>325</v>
       </c>
       <c r="N13" s="7">
-        <v>246498</v>
+        <v>237803</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,7 +4562,7 @@
         <v>571</v>
       </c>
       <c r="D14" s="7">
-        <v>570910</v>
+        <v>546505</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>178</v>
@@ -4577,7 +4577,7 @@
         <v>787</v>
       </c>
       <c r="I14" s="7">
-        <v>567977</v>
+        <v>521372</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>181</v>
@@ -4586,22 +4586,22 @@
         <v>182</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="M14" s="7">
         <v>1358</v>
       </c>
       <c r="N14" s="7">
-        <v>1138887</v>
+        <v>1067878</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,7 +4613,7 @@
         <v>680</v>
       </c>
       <c r="D15" s="7">
-        <v>672221</v>
+        <v>645876</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -4628,7 +4628,7 @@
         <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>713164</v>
+        <v>659804</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -4643,7 +4643,7 @@
         <v>1683</v>
       </c>
       <c r="N15" s="7">
-        <v>1385385</v>
+        <v>1305681</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -4690,7 +4690,7 @@
         <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4705,7 +4705,7 @@
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,46 +4717,46 @@
         <v>562</v>
       </c>
       <c r="D17" s="7">
-        <v>571495</v>
+        <v>756412</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H17" s="7">
         <v>1078</v>
       </c>
       <c r="I17" s="7">
-        <v>668320</v>
+        <v>628013</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M17" s="7">
         <v>1640</v>
       </c>
       <c r="N17" s="7">
-        <v>1239815</v>
+        <v>1384425</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,37 +4768,37 @@
         <v>2800</v>
       </c>
       <c r="D18" s="7">
-        <v>2803618</v>
+        <v>2694017</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H18" s="7">
         <v>4269</v>
       </c>
       <c r="I18" s="7">
-        <v>3127487</v>
+        <v>3022580</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>7069</v>
       </c>
       <c r="N18" s="7">
-        <v>5931105</v>
+        <v>5716598</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>201</v>
@@ -4819,7 +4819,7 @@
         <v>3362</v>
       </c>
       <c r="D19" s="7">
-        <v>3375113</v>
+        <v>3450429</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -4834,7 +4834,7 @@
         <v>5347</v>
       </c>
       <c r="I19" s="7">
-        <v>3795807</v>
+        <v>3650593</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -4849,7 +4849,7 @@
         <v>8709</v>
       </c>
       <c r="N19" s="7">
-        <v>7170920</v>
+        <v>7101023</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
